--- a/2 - Execution/Result_tests.xlsx
+++ b/2 - Execution/Result_tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Grafico Demonstrativo" sheetId="1" state="visible" r:id="rId2"/>
@@ -550,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -573,14 +573,14 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="true"/>
+      <sz val="15"/>
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="15"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
@@ -609,6 +609,28 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -691,7 +713,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,19 +723,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -725,19 +747,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -753,7 +775,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -818,7 +840,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -894,10 +916,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0338782467190291"/>
-          <c:y val="0.0459075617768422"/>
-          <c:w val="0.723488602576809"/>
-          <c:h val="0.699712446939614"/>
+          <c:x val="0.0338927006695875"/>
+          <c:y val="0.0458747004450531"/>
+          <c:w val="0.723443829048524"/>
+          <c:h val="0.699691886340294"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -1175,7 +1197,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1524,7 +1546,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1884,9 +1906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>488160</xdr:colOff>
+      <xdr:colOff>487800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1895,7 +1917,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3341520" y="11160"/>
-        <a:ext cx="8717400" cy="5257800"/>
+        <a:ext cx="8709480" cy="5257440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1919,9 +1941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3188880</xdr:colOff>
+      <xdr:colOff>3188520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1930,7 +1952,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3520800" y="499680"/>
-        <a:ext cx="6918840" cy="46440"/>
+        <a:ext cx="6918480" cy="46080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1954,9 +1976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3188880</xdr:colOff>
+      <xdr:colOff>3188520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1965,7 +1987,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3520800" y="499680"/>
-        <a:ext cx="6918840" cy="46440"/>
+        <a:ext cx="6918480" cy="46080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1973,6 +1995,240 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59760</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextShape 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36000" y="0"/>
+          <a:ext cx="5713200" cy="5500080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="72000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr lIns="36000" rIns="36000" tIns="36000" bIns="36000"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="1" lang="pt-BR" sz="2000" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Melhotias Propostas para o Idblog</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="2000" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>1 – Acessibilidade. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>- Não é possível encontrar no site a opção para o aumento da fonte e em            algumas partes fica inviável utilizar um leitor de telas, por conta da                  grande quantidade de tópicos em um espaço pequeno. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>- O esquema de cores poderia ser em tons pastel para que pessoas mais            idosas não tenham cansaço ao navegar pelo site por muito tempo. As               cores fortes chamam a atenção, poré m cansam rápido. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>- Alguns termos estão em inglês, como por exemplo a caixa de pesquisa e        a resposta quando não é encontrado um artigo. Nesse caso, o ideal seria           unificar o idioma. </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="1" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>2 – Funcionalidade Newsletter </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>- Após uma pessoa preencher o e-mail a primeira vez, o banner não é mais       exibido, mesmo recarregando a página, fazendo com que, caso a pessoa          deseje inserir mais um endereço de e-mail, ou caso tenha errado no                  preenchimento, tenha que limpar o cache ou acessar o blog de uma janela        anônima.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr b="0" lang="pt-BR" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2708,7 +2964,7 @@
   </sheetPr>
   <dimension ref="A1:D331"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A322" activeCellId="0" sqref="A322"/>
     </sheetView>
   </sheetViews>
@@ -5698,8 +5954,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5714,5 +5970,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>